--- a/window/windowList_protocolCore.xlsx
+++ b/window/windowList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\window_protocolCore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24942F1-36CF-4ABD-88B0-F28B9ECE9342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488ADAA-7D5E-4CC1-A84B-CFF1821ECAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24432" yWindow="852" windowWidth="17280" windowHeight="9036" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove finestre" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Finestra</t>
   </si>
@@ -124,6 +124,36 @@
   </si>
   <si>
     <t>Valore Parametro</t>
+  </si>
+  <si>
+    <t>YAX3MUSR</t>
+  </si>
+  <si>
+    <t>YAX3M(B)</t>
+  </si>
+  <si>
+    <t>Backend utenti ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Validante</t>
+  </si>
+  <si>
+    <t>Ricerca</t>
+  </si>
+  <si>
+    <t>Crea/Aggiorna</t>
+  </si>
+  <si>
+    <t>SPE</t>
   </si>
 </sst>
 </file>
@@ -213,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,10 +269,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -523,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +640,7 @@
       <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="8">
@@ -615,6 +648,41 @@
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="8">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -638,16 +706,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -658,10 +726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC10FBD6-1E25-4864-B5F2-4AC0EF99F9A2}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +738,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -697,7 +766,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>10</v>
@@ -717,6 +786,61 @@
       <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -727,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6FB786-2519-4F92-B551-E87CB157CDEF}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/window/windowList_protocolCore.xlsx
+++ b/window/windowList_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488ADAA-7D5E-4CC1-A84B-CFF1821ECAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C7741C-E211-4100-9618-E91472DC4A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24432" yWindow="852" windowWidth="17280" windowHeight="9036" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove finestre" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -852,7 +852,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/window/windowList_protocolCore.xlsx
+++ b/window/windowList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C7741C-E211-4100-9618-E91472DC4A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A52BC6-13C4-400C-8414-07501D807B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove finestre" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>Finestra</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Diversi</t>
   </si>
   <si>
-    <t>YAX3M</t>
-  </si>
-  <si>
     <t>Fin Modello</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>YAX3MUSR</t>
   </si>
   <si>
-    <t>YAX3M(B)</t>
-  </si>
-  <si>
     <t>Backend utenti ArgoX3 Mobile</t>
   </si>
   <si>
@@ -154,6 +148,21 @@
   </si>
   <si>
     <t>SPE</t>
+  </si>
+  <si>
+    <t>YAX3C</t>
+  </si>
+  <si>
+    <t>Configurazioni ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>Backend Utenti ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>Tipo Videata</t>
+  </si>
+  <si>
+    <t>Scheda</t>
   </si>
 </sst>
 </file>
@@ -243,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,12 +278,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +576,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +605,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -617,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>9</v>
@@ -651,13 +668,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
@@ -678,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="8">
         <v>5</v>
@@ -691,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D875BF-F3A7-428A-A567-4C89B22B99D9}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,18 +722,55 @@
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>19</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +783,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,29 +793,30 @@
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,59 +843,59 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,7 +907,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,22 +922,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
